--- a/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
+++ b/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Adb.intra.admin.ch\userhome$\BLV_LC-01\U80803454\Home-ARCHIVE\ALVPH\Moderhinke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0AEDC2C-5644-4508-87E7-6C02B8E666D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38931BFA-53A3-44D1-9702-A7FF82DCB3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{33977258-7FEB-4954-9ACB-114AB687038E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7DF51402-A826-404C-A9FC-C16FC93A810E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="9">
   <si>
     <t>YearWeekIso</t>
   </si>
@@ -433,14 +433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B19107-7CA9-4834-9D99-61320CC1C7CC}">
-  <dimension ref="A1:D71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F250AD-B974-4B51-8F30-2979BF34F585}">
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11768</v>
+        <v>11767</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11513</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>11872</v>
+        <v>11871</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>11160</v>
+        <v>11159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>11980</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>10658</v>
+        <v>10657</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>12024</v>
+        <v>12023</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>10107</v>
+        <v>10106</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12081</v>
+        <v>12080</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>9677</v>
+        <v>9676</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>12123</v>
+        <v>12122</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>9216</v>
+        <v>9215</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>12163</v>
+        <v>12162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8808</v>
+        <v>8807</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>12201</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>8284</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>12236</v>
+        <v>12235</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>7716</v>
+        <v>7715</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>12262</v>
+        <v>12261</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>7169</v>
+        <v>7168</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>12290</v>
+        <v>12289</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>6527</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>12313</v>
+        <v>12312</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>5917</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>12324</v>
+        <v>12323</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>5751</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12346</v>
+        <v>12345</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5567</v>
+        <v>5566</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1440,6 +1440,76 @@
       </c>
       <c r="D71">
         <v>5414</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>202502</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45669</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>12361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>202502</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45669</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>202502</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45669</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>7231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>202502</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45669</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>202502</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45669</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>5814</v>
       </c>
     </row>
   </sheetData>

--- a/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
+++ b/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Adb.intra.admin.ch\userhome$\BLV_LC-01\U80803454\Home-ARCHIVE\ALVPH\Moderhinke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38931BFA-53A3-44D1-9702-A7FF82DCB3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDACEF37-4172-4A41-983B-66B43ACCBAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7DF51402-A826-404C-A9FC-C16FC93A810E}"/>
+    <workbookView xWindow="7500" yWindow="3525" windowWidth="28800" windowHeight="15345" xr2:uid="{13E355CB-536D-42F8-89E8-1F6A3F3F9BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="9">
   <si>
     <t>YearWeekIso</t>
   </si>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F250AD-B974-4B51-8F30-2979BF34F585}">
-  <dimension ref="A1:D76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B50BFE0-E87F-4806-8CFD-D822BF5EFECF}">
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11767</v>
+        <v>11768</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11512</v>
+        <v>11513</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>11871</v>
+        <v>11872</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>11159</v>
+        <v>11160</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>11979</v>
+        <v>11980</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>10657</v>
+        <v>10658</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>12023</v>
+        <v>12024</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>10106</v>
+        <v>10107</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12080</v>
+        <v>12081</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>9676</v>
+        <v>9677</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>12122</v>
+        <v>12123</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>9215</v>
+        <v>9216</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>12162</v>
+        <v>12163</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8807</v>
+        <v>8808</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>12200</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>8283</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>12235</v>
+        <v>12236</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>7715</v>
+        <v>7716</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>5130</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>7231</v>
+        <v>7233</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1509,7 +1509,77 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <v>5814</v>
+        <v>5816</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>202503</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45676</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>202503</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45676</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>202503</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45676</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>7734</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>202503</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45676</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>202503</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45676</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>6261</v>
       </c>
     </row>
   </sheetData>

--- a/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
+++ b/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Adb.intra.admin.ch\userhome$\BLV_LC-01\U80803454\Home-ARCHIVE\ALVPH\Moderhinke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDACEF37-4172-4A41-983B-66B43ACCBAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDFDDB5B-0EAE-4BA4-8C27-60869267D717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="3525" windowWidth="28800" windowHeight="15345" xr2:uid="{13E355CB-536D-42F8-89E8-1F6A3F3F9BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C417A062-F292-4DA1-9C89-6E40B21962AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="9">
   <si>
     <t>YearWeekIso</t>
   </si>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B50BFE0-E87F-4806-8CFD-D822BF5EFECF}">
-  <dimension ref="A1:D81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689FCFD2-427A-4A50-9F19-E0173513F41F}">
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:H31"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11768</v>
+        <v>11767</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11513</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>11872</v>
+        <v>11871</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>11160</v>
+        <v>11159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>11980</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>10658</v>
+        <v>10657</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>12024</v>
+        <v>12023</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>10107</v>
+        <v>10106</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12081</v>
+        <v>12080</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>9677</v>
+        <v>9676</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>12123</v>
+        <v>12122</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>9216</v>
+        <v>9215</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>12163</v>
+        <v>12162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8808</v>
+        <v>8807</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>12201</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>8284</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>12236</v>
+        <v>12235</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>7716</v>
+        <v>7715</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>12261</v>
+        <v>12260</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>7168</v>
+        <v>7167</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>12289</v>
+        <v>12288</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>6526</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>12312</v>
+        <v>12311</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>5916</v>
+        <v>5915</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>12323</v>
+        <v>12322</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>5750</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12345</v>
+        <v>12344</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5566</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>12361</v>
+        <v>12360</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>5128</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>7233</v>
+        <v>7231</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1495,7 +1495,7 @@
         <v>7</v>
       </c>
       <c r="D75">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1509,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <v>5816</v>
+        <v>5815</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>12384</v>
+        <v>12383</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>4650</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1551,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <v>7734</v>
+        <v>7731</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1565,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="D80">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,77 @@
         <v>8</v>
       </c>
       <c r="D81">
-        <v>6261</v>
+        <v>6259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>202504</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45683</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>12401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>202504</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45683</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>202504</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45683</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <v>8267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>202504</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45683</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>202504</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45683</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>6759</v>
       </c>
     </row>
   </sheetData>

--- a/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
+++ b/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Adb.intra.admin.ch\userhome$\BLV_LC-01\U80803454\Home-ARCHIVE\ALVPH\Moderhinke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDFDDB5B-0EAE-4BA4-8C27-60869267D717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A882490E-B788-4617-8665-E508995615B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C417A062-F292-4DA1-9C89-6E40B21962AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6119476C-F750-4EA5-A772-BC5BCB8D1CCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="9">
   <si>
     <t>YearWeekIso</t>
   </si>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689FCFD2-427A-4A50-9F19-E0173513F41F}">
-  <dimension ref="A1:D86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBD338F-D54D-494E-8B4C-5A33E16DDDF7}">
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11767</v>
+        <v>11765</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11512</v>
+        <v>11510</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>11871</v>
+        <v>11869</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>11159</v>
+        <v>11157</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>11979</v>
+        <v>11977</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>10657</v>
+        <v>10655</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>12023</v>
+        <v>12021</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>10106</v>
+        <v>10104</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12080</v>
+        <v>12078</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>9676</v>
+        <v>9674</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>12122</v>
+        <v>12120</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>9215</v>
+        <v>9213</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>12162</v>
+        <v>12160</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8807</v>
+        <v>8805</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>12200</v>
+        <v>12198</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>8283</v>
+        <v>8281</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>12235</v>
+        <v>12233</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>7715</v>
+        <v>7713</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>12260</v>
+        <v>12258</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>7167</v>
+        <v>7165</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>12288</v>
+        <v>12286</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>6525</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>12311</v>
+        <v>12309</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>5915</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>12322</v>
+        <v>12320</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>5749</v>
+        <v>5747</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12344</v>
+        <v>12342</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5565</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>12360</v>
+        <v>12358</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>5129</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>12383</v>
+        <v>12381</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>4652</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>12401</v>
+        <v>12399</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <v>4134</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1650,6 +1650,76 @@
       </c>
       <c r="D86">
         <v>6759</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>202505</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45690</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>12426</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>202505</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45690</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>202505</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45690</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>8701</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>202505</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45690</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>202505</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45690</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91">
+        <v>7165</v>
       </c>
     </row>
   </sheetData>

--- a/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
+++ b/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Adb.intra.admin.ch\userhome$\BLV_LC-01\U80803454\Home-ARCHIVE\ALVPH\Moderhinke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A882490E-B788-4617-8665-E508995615B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2044F3-98CA-4D62-AE2B-CD5063F0E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6119476C-F750-4EA5-A772-BC5BCB8D1CCE}"/>
+    <workbookView xWindow="885" yWindow="465" windowWidth="26460" windowHeight="19395" xr2:uid="{31415435-408B-4F12-9FC1-CC3E9DD92DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="9">
   <si>
     <t>YearWeekIso</t>
   </si>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBD338F-D54D-494E-8B4C-5A33E16DDDF7}">
-  <dimension ref="A1:D91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E168F9-3BEF-43B3-A298-840A78D29841}">
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11765</v>
+        <v>11764</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11510</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>11869</v>
+        <v>11868</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>11157</v>
+        <v>11156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>11977</v>
+        <v>11976</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -641,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -669,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>12021</v>
+        <v>12020</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -739,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12078</v>
+        <v>12077</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -809,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>12120</v>
+        <v>12119</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>9213</v>
+        <v>9214</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>2907</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="D31">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>12160</v>
+        <v>12159</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8805</v>
+        <v>8806</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -921,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>3355</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>2649</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>12198</v>
+        <v>12197</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>8281</v>
+        <v>8282</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>3917</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>3116</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>12233</v>
+        <v>12232</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>7713</v>
+        <v>7714</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1061,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>4520</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="D46">
-        <v>3618</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>12258</v>
+        <v>12257</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>7165</v>
+        <v>7166</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>5093</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1159,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="D51">
-        <v>4078</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>12286</v>
+        <v>12285</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>6523</v>
+        <v>6524</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>5763</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="D56">
-        <v>4582</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>12309</v>
+        <v>12308</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>5913</v>
+        <v>5914</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1271,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>6396</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="D61">
-        <v>5108</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>12320</v>
+        <v>12319</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>5747</v>
+        <v>5748</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>6573</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>8</v>
       </c>
       <c r="D66">
-        <v>5256</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12342</v>
+        <v>12341</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5563</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1411,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <v>6779</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="D71">
-        <v>5414</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>12358</v>
+        <v>12357</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>5127</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>7231</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1509,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <v>5815</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>12381</v>
+        <v>12380</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>4650</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1551,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <v>7731</v>
+        <v>7729</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="D81">
-        <v>6259</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>12399</v>
+        <v>12398</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>8267</v>
+        <v>8266</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>8</v>
       </c>
       <c r="D86">
-        <v>6759</v>
+        <v>6758</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>12426</v>
+        <v>12425</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="D88">
-        <v>3725</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1691,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="D89">
-        <v>8701</v>
+        <v>8699</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -1705,7 +1705,7 @@
         <v>7</v>
       </c>
       <c r="D90">
-        <v>1536</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -1719,7 +1719,77 @@
         <v>8</v>
       </c>
       <c r="D91">
-        <v>7165</v>
+        <v>7161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>202506</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45697</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>12441</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>202506</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45697</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>202506</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45697</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>9053</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>202506</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45697</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>202506</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45697</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96">
+        <v>7519</v>
       </c>
     </row>
   </sheetData>

--- a/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
+++ b/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Adb.intra.admin.ch\userhome$\BLV_LC-01\U80803454\Home-ARCHIVE\ALVPH\Moderhinke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2044F3-98CA-4D62-AE2B-CD5063F0E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{876E9021-F579-457B-9956-BEC8D7A75D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="465" windowWidth="26460" windowHeight="19395" xr2:uid="{31415435-408B-4F12-9FC1-CC3E9DD92DD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36CB32E3-62A4-4C1A-9186-7EB3628FF0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="9">
   <si>
     <t>YearWeekIso</t>
   </si>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E168F9-3BEF-43B3-A298-840A78D29841}">
-  <dimension ref="A1:D96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C82C4E-1836-44D8-8C97-533A75AAB532}">
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11764</v>
+        <v>11761</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11509</v>
+        <v>11506</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>11868</v>
+        <v>11865</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>11156</v>
+        <v>11153</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>11976</v>
+        <v>11973</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>10655</v>
+        <v>10651</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -641,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -669,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>12020</v>
+        <v>12017</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>10104</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -739,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12077</v>
+        <v>12074</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>9674</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>2403</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -809,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>12119</v>
+        <v>12116</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>9214</v>
+        <v>9210</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>2905</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="D31">
-        <v>2296</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>12159</v>
+        <v>12156</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8806</v>
+        <v>8802</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -921,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>3353</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>2647</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>12197</v>
+        <v>12194</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>8282</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>3915</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>3114</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>12232</v>
+        <v>12229</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>7714</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1061,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>4518</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="D46">
-        <v>3616</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>12257</v>
+        <v>12254</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>7166</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>5091</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1159,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="D51">
-        <v>4076</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>12285</v>
+        <v>12282</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>6524</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>5761</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="D56">
-        <v>4580</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>12308</v>
+        <v>12305</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>5914</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1271,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>6394</v>
+        <v>6395</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="D61">
-        <v>5106</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>12319</v>
+        <v>12316</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>5748</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>6571</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>8</v>
       </c>
       <c r="D66">
-        <v>5254</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12341</v>
+        <v>12338</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5564</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1411,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <v>6777</v>
+        <v>6778</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="D71">
-        <v>5412</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>12357</v>
+        <v>12354</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>5128</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>7229</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1509,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <v>5813</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>12380</v>
+        <v>12376</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>4651</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1551,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <v>7729</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="D81">
-        <v>6257</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>12398</v>
+        <v>12394</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <v>4132</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>8266</v>
+        <v>8267</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>8</v>
       </c>
       <c r="D86">
-        <v>6758</v>
+        <v>6759</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>12425</v>
+        <v>12421</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="D88">
-        <v>3726</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1691,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="D89">
-        <v>8699</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -1719,7 +1719,7 @@
         <v>8</v>
       </c>
       <c r="D91">
-        <v>7161</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>12441</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>3388</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>6</v>
       </c>
       <c r="D94">
-        <v>9053</v>
+        <v>9054</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -1789,7 +1789,77 @@
         <v>8</v>
       </c>
       <c r="D96">
-        <v>7519</v>
+        <v>7520</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>202507</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45704</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>12458</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>202507</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45704</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>202507</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45704</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>9387</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>202507</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45704</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>202507</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45704</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101">
+        <v>7837</v>
       </c>
     </row>
   </sheetData>

--- a/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
+++ b/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Adb.intra.admin.ch\userhome$\BLV_LC-01\U80803454\Home-ARCHIVE\ALVPH\Moderhinke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{876E9021-F579-457B-9956-BEC8D7A75D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3986EBE-F079-44E5-ABC9-C77EF663A6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36CB32E3-62A4-4C1A-9186-7EB3628FF0C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{312611FB-4703-4210-99B8-FF7B51831B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="9">
   <si>
     <t>YearWeekIso</t>
   </si>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C82C4E-1836-44D8-8C97-533A75AAB532}">
-  <dimension ref="A1:D101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BDDC33-F88F-487A-94E4-BF551DA8E55D}">
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11761</v>
+        <v>11760</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11506</v>
+        <v>11505</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>11865</v>
+        <v>11864</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>11153</v>
+        <v>11152</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>11973</v>
+        <v>11972</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>10651</v>
+        <v>10650</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>12017</v>
+        <v>12016</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>10100</v>
+        <v>10099</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12074</v>
+        <v>12073</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>9670</v>
+        <v>9669</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>12116</v>
+        <v>12115</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>9210</v>
+        <v>9209</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>12156</v>
+        <v>12155</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8802</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>12194</v>
+        <v>12193</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>8278</v>
+        <v>8277</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>12229</v>
+        <v>12228</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>7710</v>
+        <v>7709</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>12254</v>
+        <v>12253</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>7162</v>
+        <v>7161</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>12282</v>
+        <v>12281</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>6520</v>
+        <v>6519</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>12305</v>
+        <v>12304</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>5910</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>12316</v>
+        <v>12315</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>5744</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12338</v>
+        <v>12337</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5560</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>12354</v>
+        <v>12353</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>5124</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>12376</v>
+        <v>12375</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>4646</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>12394</v>
+        <v>12393</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <v>4127</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>12421</v>
+        <v>12420</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="D88">
-        <v>3721</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>12437</v>
+        <v>12436</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>3383</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D97">
-        <v>12458</v>
+        <v>12457</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>6</v>
       </c>
       <c r="D99">
-        <v>9387</v>
+        <v>9386</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -1845,7 +1845,7 @@
         <v>7</v>
       </c>
       <c r="D100">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -1861,6 +1861,151 @@
       <c r="D101">
         <v>7837</v>
       </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>202508</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45711</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>12472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>202508</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45711</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>202508</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45711</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>9677</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>202508</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45711</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>202508</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45711</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106">
+        <v>8129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
+++ b/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Adb.intra.admin.ch\userhome$\BLV_LC-01\U80803454\Home-ARCHIVE\ALVPH\Moderhinke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3986EBE-F079-44E5-ABC9-C77EF663A6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{068B2126-AC32-4692-A82C-DB0329D49D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{312611FB-4703-4210-99B8-FF7B51831B5C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7923BE04-3DF1-4879-9C12-D2E3764C510A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="9">
   <si>
     <t>YearWeekIso</t>
   </si>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BDDC33-F88F-487A-94E4-BF551DA8E55D}">
-  <dimension ref="A1:D131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8645B81-7206-45A2-B4D5-D6DF59044745}">
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11760</v>
+        <v>11756</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11505</v>
+        <v>11501</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>11864</v>
+        <v>11860</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>11152</v>
+        <v>11148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>11972</v>
+        <v>11968</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>10650</v>
+        <v>10646</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>12016</v>
+        <v>12012</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>10099</v>
+        <v>10095</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12073</v>
+        <v>12069</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>9669</v>
+        <v>9666</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -809,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>12115</v>
+        <v>12111</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>9209</v>
+        <v>9207</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>2906</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="D31">
-        <v>2297</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>12155</v>
+        <v>12151</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8801</v>
+        <v>8799</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -921,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>3354</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>2648</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>12193</v>
+        <v>12189</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>8277</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>3916</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>3115</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>12228</v>
+        <v>12224</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>7709</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1061,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>4519</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="D46">
-        <v>3617</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>12253</v>
+        <v>12249</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>7161</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>5092</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1159,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="D51">
-        <v>4077</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>12281</v>
+        <v>12277</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>6519</v>
+        <v>6518</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>5762</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="D56">
-        <v>4581</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>12304</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>5909</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1271,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>6395</v>
+        <v>6392</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="D61">
-        <v>5107</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>12315</v>
+        <v>12311</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>5743</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>6572</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>8</v>
       </c>
       <c r="D66">
-        <v>5255</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12337</v>
+        <v>12333</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5559</v>
+        <v>5558</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1411,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <v>6778</v>
+        <v>6775</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="D71">
-        <v>5413</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>12353</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>5123</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>7230</v>
+        <v>7227</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1509,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <v>5814</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>12375</v>
+        <v>12371</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>4645</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1551,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <v>7730</v>
+        <v>7727</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="D81">
-        <v>6258</v>
+        <v>6255</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>12393</v>
+        <v>12389</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <v>4126</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>8267</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>8</v>
       </c>
       <c r="D86">
-        <v>6759</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>12420</v>
+        <v>12416</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="D88">
-        <v>3720</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1691,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="D89">
-        <v>8700</v>
+        <v>8697</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -1719,7 +1719,7 @@
         <v>8</v>
       </c>
       <c r="D91">
-        <v>7162</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>12436</v>
+        <v>12432</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>3382</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>6</v>
       </c>
       <c r="D94">
-        <v>9054</v>
+        <v>9051</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -1789,7 +1789,7 @@
         <v>8</v>
       </c>
       <c r="D96">
-        <v>7520</v>
+        <v>7517</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D97">
-        <v>12457</v>
+        <v>12453</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="D98">
-        <v>3071</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>6</v>
       </c>
       <c r="D99">
-        <v>9386</v>
+        <v>9383</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,7 +1859,7 @@
         <v>8</v>
       </c>
       <c r="D101">
-        <v>7837</v>
+        <v>7834</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="D102">
-        <v>12472</v>
+        <v>12468</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="D103">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D104">
-        <v>9677</v>
+        <v>9674</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -1915,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="D105">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -1929,83 +1929,78 @@
         <v>8</v>
       </c>
       <c r="D106">
-        <v>8129</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B107" s="1"/>
+      <c r="A107">
+        <v>202509</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45718</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>12479</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B108" s="1"/>
+      <c r="A108">
+        <v>202509</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45718</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>2508</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B109" s="1"/>
+      <c r="A109">
+        <v>202509</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45718</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>9971</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B110" s="1"/>
+      <c r="A110">
+        <v>202509</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45718</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110">
+        <v>1541</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="1"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125" s="1"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="1"/>
+      <c r="A111">
+        <v>202509</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45718</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111">
+        <v>8430</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
+++ b/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Adb.intra.admin.ch\userhome$\BLV_LC-01\U80803454\Home-ARCHIVE\ALVPH\Moderhinke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{068B2126-AC32-4692-A82C-DB0329D49D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22EB05F8-8DB3-4DB7-AB00-913C3DA3984E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7923BE04-3DF1-4879-9C12-D2E3764C510A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{631E40E4-76D3-42BC-8A7E-1B899A8E59AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="9">
   <si>
     <t>YearWeekIso</t>
   </si>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8645B81-7206-45A2-B4D5-D6DF59044745}">
-  <dimension ref="A1:D111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF5386B-0E3A-4B03-B24F-BFB603736080}">
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11756</v>
+        <v>11752</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11501</v>
+        <v>11497</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>11860</v>
+        <v>11856</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>11148</v>
+        <v>11143</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -571,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -599,7 +599,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>11968</v>
+        <v>11964</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>10646</v>
+        <v>10641</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -641,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -669,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>12012</v>
+        <v>12008</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>10095</v>
+        <v>10090</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -739,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12069</v>
+        <v>12066</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>9666</v>
+        <v>9662</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>2403</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -809,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>12111</v>
+        <v>12108</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>9207</v>
+        <v>9203</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>2904</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="D31">
-        <v>2295</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>12151</v>
+        <v>12148</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8799</v>
+        <v>8795</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -921,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>3352</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>2646</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>12189</v>
+        <v>12186</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>8275</v>
+        <v>8271</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>3914</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>3113</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>12224</v>
+        <v>12221</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>7708</v>
+        <v>7704</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1061,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>4516</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="D46">
-        <v>3614</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>12249</v>
+        <v>12246</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>7160</v>
+        <v>7156</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>5089</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1159,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="D51">
-        <v>4074</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>12277</v>
+        <v>12274</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>6518</v>
+        <v>6514</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>5759</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="D56">
-        <v>4578</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>12300</v>
+        <v>12297</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>5908</v>
+        <v>5903</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1271,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>6392</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="D61">
-        <v>5104</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>12311</v>
+        <v>12308</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>5742</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>6569</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>8</v>
       </c>
       <c r="D66">
-        <v>5252</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12333</v>
+        <v>12330</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5558</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1411,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <v>6775</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="D71">
-        <v>5410</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>12349</v>
+        <v>12346</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>5122</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>7227</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1509,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <v>5811</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>12371</v>
+        <v>12368</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>4644</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1551,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <v>7727</v>
+        <v>7729</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="D81">
-        <v>6255</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>12389</v>
+        <v>12386</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <v>4125</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>8264</v>
+        <v>8266</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>8</v>
       </c>
       <c r="D86">
-        <v>6756</v>
+        <v>6758</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>12416</v>
+        <v>12413</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="D88">
-        <v>3719</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1691,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="D89">
-        <v>8697</v>
+        <v>8699</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -1719,7 +1719,7 @@
         <v>8</v>
       </c>
       <c r="D91">
-        <v>7159</v>
+        <v>7161</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>12432</v>
+        <v>12429</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>3381</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>6</v>
       </c>
       <c r="D94">
-        <v>9051</v>
+        <v>9053</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -1789,7 +1789,7 @@
         <v>8</v>
       </c>
       <c r="D96">
-        <v>7517</v>
+        <v>7519</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D97">
-        <v>12453</v>
+        <v>12450</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="D98">
-        <v>3070</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>6</v>
       </c>
       <c r="D99">
-        <v>9383</v>
+        <v>9385</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,7 +1859,7 @@
         <v>8</v>
       </c>
       <c r="D101">
-        <v>7834</v>
+        <v>7836</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="D102">
-        <v>12468</v>
+        <v>12465</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="D103">
-        <v>2794</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="D104">
-        <v>9674</v>
+        <v>9676</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -1929,7 +1929,7 @@
         <v>8</v>
       </c>
       <c r="D106">
-        <v>8125</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="D107">
-        <v>12479</v>
+        <v>12475</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="D108">
-        <v>2508</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -1971,7 +1971,7 @@
         <v>6</v>
       </c>
       <c r="D109">
-        <v>9971</v>
+        <v>9973</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -1999,7 +1999,77 @@
         <v>8</v>
       </c>
       <c r="D111">
-        <v>8430</v>
+        <v>8432</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>202510</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45725</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>12496</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>202510</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45725</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>202510</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45725</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>10231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>202510</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45725</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>202510</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45725</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116">
+        <v>8697</v>
       </c>
     </row>
   </sheetData>

--- a/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
+++ b/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Adb.intra.admin.ch\userhome$\BLV_LC-01\U80803454\Home-ARCHIVE\ALVPH\Moderhinke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22EB05F8-8DB3-4DB7-AB00-913C3DA3984E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{599A415E-8C70-4740-9AF9-9583677C4136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{631E40E4-76D3-42BC-8A7E-1B899A8E59AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{299FAF5A-9063-45C5-A90D-1695127C8013}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="9">
   <si>
     <t>YearWeekIso</t>
   </si>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF5386B-0E3A-4B03-B24F-BFB603736080}">
-  <dimension ref="A1:D116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC90C913-2B5C-45FB-8846-46B6953A5C25}">
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11752</v>
+        <v>11742</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11497</v>
+        <v>11487</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>11856</v>
+        <v>11846</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>11143</v>
+        <v>11133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>11964</v>
+        <v>11954</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>10641</v>
+        <v>10631</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>12008</v>
+        <v>11998</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>10090</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12066</v>
+        <v>12056</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>9662</v>
+        <v>9652</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>12108</v>
+        <v>12098</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>9203</v>
+        <v>9193</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>12148</v>
+        <v>12138</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8795</v>
+        <v>8785</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>12186</v>
+        <v>12176</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>8271</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>12221</v>
+        <v>12211</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>7704</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>12246</v>
+        <v>12236</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>7156</v>
+        <v>7146</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>12274</v>
+        <v>12264</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>6514</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>12297</v>
+        <v>12287</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>5903</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>12308</v>
+        <v>12298</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>5737</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12330</v>
+        <v>12320</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5553</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>12346</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>5117</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>12368</v>
+        <v>12358</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>4639</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>12386</v>
+        <v>12376</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <v>4120</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>12413</v>
+        <v>12403</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="D88">
-        <v>3714</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>12429</v>
+        <v>12419</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>3376</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D97">
-        <v>12450</v>
+        <v>12440</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="D98">
-        <v>3065</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="D102">
-        <v>12465</v>
+        <v>12455</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="D103">
-        <v>2789</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="D107">
-        <v>12475</v>
+        <v>12465</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="D108">
-        <v>2502</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="D112">
-        <v>12496</v>
+        <v>12486</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="D113">
-        <v>2265</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2055,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="D115">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2069,7 +2069,77 @@
         <v>8</v>
       </c>
       <c r="D116">
-        <v>8697</v>
+        <v>8698</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>202511</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>12507</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>202511</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>202511</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>10497</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>202511</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>202511</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121">
+        <v>8998</v>
       </c>
     </row>
   </sheetData>

--- a/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
+++ b/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Adb.intra.admin.ch\userhome$\BLV_LC-01\U80803454\Home-ARCHIVE\ALVPH\Moderhinke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{599A415E-8C70-4740-9AF9-9583677C4136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C5762B2-4F53-4437-8B61-4DF22E411014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{299FAF5A-9063-45C5-A90D-1695127C8013}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54B6F3A5-A1B8-4175-B591-2A31689FE543}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="9">
   <si>
     <t>YearWeekIso</t>
   </si>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC90C913-2B5C-45FB-8846-46B6953A5C25}">
-  <dimension ref="A1:D121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBA1D3C-F62B-4B7D-8F5F-A94A904F8117}">
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11742</v>
+        <v>11734</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11487</v>
+        <v>11479</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>11846</v>
+        <v>11838</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>11133</v>
+        <v>11125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>11954</v>
+        <v>11946</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>10631</v>
+        <v>10623</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>11998</v>
+        <v>11990</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>10080</v>
+        <v>10072</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12056</v>
+        <v>12048</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>9652</v>
+        <v>9644</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>12098</v>
+        <v>12090</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>9193</v>
+        <v>9185</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>12138</v>
+        <v>12130</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8785</v>
+        <v>8777</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>12176</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>8261</v>
+        <v>8253</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>12211</v>
+        <v>12203</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>7694</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>12236</v>
+        <v>12228</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>7146</v>
+        <v>7138</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>12264</v>
+        <v>12256</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>6504</v>
+        <v>6496</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>12287</v>
+        <v>12279</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>5893</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>12298</v>
+        <v>12290</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>5727</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12320</v>
+        <v>12312</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5543</v>
+        <v>5535</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>12336</v>
+        <v>12328</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>5107</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>12358</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>4629</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>12376</v>
+        <v>12368</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <v>4110</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>12403</v>
+        <v>12395</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="D88">
-        <v>3704</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>12419</v>
+        <v>12411</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>3366</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D97">
-        <v>12440</v>
+        <v>12432</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="D98">
-        <v>3055</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="D102">
-        <v>12455</v>
+        <v>12447</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="D103">
-        <v>2779</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="D107">
-        <v>12465</v>
+        <v>12457</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="D108">
-        <v>2492</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="D112">
-        <v>12486</v>
+        <v>12478</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="D113">
-        <v>2255</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2083,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="D117">
-        <v>12507</v>
+        <v>12499</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2097,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="D118">
-        <v>2010</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2140,6 +2140,76 @@
       </c>
       <c r="D121">
         <v>8998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>202512</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>12514</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>202512</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>202512</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124">
+        <v>10768</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>202512</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>202512</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>9300</v>
       </c>
     </row>
   </sheetData>

--- a/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
+++ b/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Adb.intra.admin.ch\userhome$\BLV_LC-01\U80803454\Home-ARCHIVE\ALVPH\Moderhinke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C5762B2-4F53-4437-8B61-4DF22E411014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7292053-BEF8-403A-8A73-26D9559EDD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54B6F3A5-A1B8-4175-B591-2A31689FE543}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0C5528A7-39B8-443D-BB49-4F333918A747}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="9">
   <si>
     <t>YearWeekIso</t>
   </si>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBA1D3C-F62B-4B7D-8F5F-A94A904F8117}">
-  <dimension ref="A1:D126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC43A3F-F932-40C9-9E21-5703A88803AF}">
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11734</v>
+        <v>11730</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11479</v>
+        <v>11475</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>11838</v>
+        <v>11834</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>11125</v>
+        <v>11121</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>11946</v>
+        <v>11942</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>10623</v>
+        <v>10619</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>11990</v>
+        <v>11986</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>10072</v>
+        <v>10068</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12048</v>
+        <v>12044</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>9644</v>
+        <v>9640</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>12090</v>
+        <v>12085</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>9185</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>12130</v>
+        <v>12125</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8777</v>
+        <v>8772</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>12168</v>
+        <v>12163</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>8253</v>
+        <v>8248</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>12203</v>
+        <v>12198</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>7686</v>
+        <v>7681</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>12228</v>
+        <v>12223</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>7138</v>
+        <v>7133</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>12256</v>
+        <v>12251</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>6496</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>12279</v>
+        <v>12274</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>5885</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>12290</v>
+        <v>12285</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>5719</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12312</v>
+        <v>12307</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5535</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>12328</v>
+        <v>12323</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>5099</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>12350</v>
+        <v>12345</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>4621</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>12368</v>
+        <v>12363</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <v>4102</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>12395</v>
+        <v>12390</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="D88">
-        <v>3696</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>12411</v>
+        <v>12406</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>3358</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D97">
-        <v>12432</v>
+        <v>12427</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="D98">
-        <v>3047</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="D102">
-        <v>12447</v>
+        <v>12442</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="D103">
-        <v>2771</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="D107">
-        <v>12457</v>
+        <v>12452</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="D108">
-        <v>2484</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="D112">
-        <v>12478</v>
+        <v>12473</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="D113">
-        <v>2247</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2083,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="D117">
-        <v>12499</v>
+        <v>12494</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2097,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="D118">
-        <v>2002</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2153,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="D122">
-        <v>12514</v>
+        <v>12511</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2167,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="D123">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2195,7 +2195,7 @@
         <v>7</v>
       </c>
       <c r="D125">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -2209,7 +2209,77 @@
         <v>8</v>
       </c>
       <c r="D126">
-        <v>9300</v>
+        <v>9301</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>202513</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>12546</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>202513</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>202513</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>11062</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>202513</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>202513</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>9589</v>
       </c>
     </row>
   </sheetData>

--- a/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
+++ b/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Adb.intra.admin.ch\userhome$\BLV_LC-01\U80803454\Home-ARCHIVE\ALVPH\Moderhinke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7292053-BEF8-403A-8A73-26D9559EDD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BAE651A-7CD7-4C6E-BDB3-10A70DBACADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0C5528A7-39B8-443D-BB49-4F333918A747}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5246EC89-F929-495B-AD2A-D3526D129241}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="9">
   <si>
     <t>YearWeekIso</t>
   </si>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC43A3F-F932-40C9-9E21-5703A88803AF}">
-  <dimension ref="A1:D131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F79BBA3-96B5-4CC4-B052-1527BF375738}">
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11730</v>
+        <v>11723</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11475</v>
+        <v>11468</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>11834</v>
+        <v>11827</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>11121</v>
+        <v>11114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>11942</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>10619</v>
+        <v>10612</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>11986</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>10068</v>
+        <v>10061</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12044</v>
+        <v>12037</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>9640</v>
+        <v>9633</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>12085</v>
+        <v>12078</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>9180</v>
+        <v>9173</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>12125</v>
+        <v>12118</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8772</v>
+        <v>8765</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>12163</v>
+        <v>12156</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>8248</v>
+        <v>8241</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>12198</v>
+        <v>12191</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>7681</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>12223</v>
+        <v>12216</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>7133</v>
+        <v>7126</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>12251</v>
+        <v>12244</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>6491</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>12274</v>
+        <v>12267</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>5880</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>12285</v>
+        <v>12278</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>5714</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12307</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5530</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>12323</v>
+        <v>12316</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>5094</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>12345</v>
+        <v>12338</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>4616</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>12363</v>
+        <v>12356</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <v>4097</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>12390</v>
+        <v>12383</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="D88">
-        <v>3691</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>12406</v>
+        <v>12398</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>3353</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D97">
-        <v>12427</v>
+        <v>12419</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="D98">
-        <v>3042</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="D102">
-        <v>12442</v>
+        <v>12434</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="D103">
-        <v>2766</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="D107">
-        <v>12452</v>
+        <v>12444</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="D108">
-        <v>2479</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="D112">
-        <v>12473</v>
+        <v>12465</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="D113">
-        <v>2242</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2083,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="D117">
-        <v>12494</v>
+        <v>12486</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2097,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="D118">
-        <v>1997</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2153,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="D122">
-        <v>12511</v>
+        <v>12503</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2167,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="D123">
-        <v>1743</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="D127">
-        <v>12546</v>
+        <v>12537</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -2237,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="D128">
-        <v>1484</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -2251,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="D129">
-        <v>11062</v>
+        <v>11061</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -2265,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="D130">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -2280,6 +2280,76 @@
       </c>
       <c r="D131">
         <v>9589</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>202514</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>12559</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>202514</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>202514</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134">
+        <v>11270</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>202514</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>202514</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136">
+        <v>9818</v>
       </c>
     </row>
   </sheetData>

--- a/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
+++ b/ogd/foot_rot_control_program/in/Moderhinke Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Adb.intra.admin.ch\userhome$\BLV_LC-01\U80803454\Home-ARCHIVE\ALVPH\Moderhinke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BAE651A-7CD7-4C6E-BDB3-10A70DBACADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF4014A-14FD-4F74-B01E-0A111B6D7363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5246EC89-F929-495B-AD2A-D3526D129241}"/>
+    <workbookView xWindow="-28020" yWindow="195" windowWidth="21600" windowHeight="11295" xr2:uid="{9C17AE3E-2EF3-4079-800E-0EE4DEE487BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="9">
   <si>
     <t>YearWeekIso</t>
   </si>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F79BBA3-96B5-4CC4-B052-1527BF375738}">
-  <dimension ref="A1:D136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34648E7-FD2C-49A1-8F0E-C752155EE914}">
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11723</v>
+        <v>11721</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11468</v>
+        <v>11466</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>11827</v>
+        <v>11826</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>11114</v>
+        <v>11113</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>11935</v>
+        <v>11934</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>10612</v>
+        <v>10611</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>11979</v>
+        <v>11978</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>10061</v>
+        <v>10060</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12037</v>
+        <v>12036</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>9633</v>
+        <v>9632</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>12078</v>
+        <v>12077</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>9173</v>
+        <v>9172</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>12118</v>
+        <v>12117</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>8765</v>
+        <v>8764</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>12156</v>
+        <v>12155</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>8241</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>12191</v>
+        <v>12190</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>7674</v>
+        <v>7673</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>12216</v>
+        <v>12215</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>7126</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>12244</v>
+        <v>12243</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>6484</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>12267</v>
+        <v>12266</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>5873</v>
+        <v>5872</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>12278</v>
+        <v>12277</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>5707</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>12300</v>
+        <v>12299</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>5523</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>12316</v>
+        <v>12315</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>5087</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>12338</v>
+        <v>12337</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>4609</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>12356</v>
+        <v>12355</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <v>4090</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>12383</v>
+        <v>12382</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="D88">
-        <v>3684</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>12398</v>
+        <v>12397</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>3345</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D97">
-        <v>12419</v>
+        <v>12418</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="D98">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="D102">
-        <v>12434</v>
+        <v>12433</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="D103">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="D107">
-        <v>12444</v>
+        <v>12443</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="D108">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="D112">
-        <v>12465</v>
+        <v>12464</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="D113">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2083,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="D117">
-        <v>12486</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2097,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="D118">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2153,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="D122">
-        <v>12503</v>
+        <v>12502</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2167,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="D123">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="D127">
-        <v>12537</v>
+        <v>12536</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -2237,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="D128">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -2293,7 +2293,7 @@
         <v>4</v>
       </c>
       <c r="D132">
-        <v>12559</v>
+        <v>12553</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -2307,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="D133">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -2350,6 +2350,76 @@
       </c>
       <c r="D136">
         <v>9818</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>202515</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>12565</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>202515</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>202515</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <v>11310</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>202515</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>202515</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <v>9929</v>
       </c>
     </row>
   </sheetData>
